--- a/Factures_Excel/2038 - 9471-5117 Qu.ébec Inc.xlsx
+++ b/Factures_Excel/2038 - 9471-5117 Qu.ébec Inc.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B9E201-5213-46CF-B032-940B94279C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9F8BC2-7CA4-402F-90B8-AB3B492372BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D4C9DB5A-C464-4902-BE29-44DEA91BDF36}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D4C9DB5A-C464-4902-BE29-44DEA91BDF36}"/>
   </bookViews>
   <sheets>
     <sheet name="2024-10-04 - 24-24518" sheetId="1" r:id="rId1"/>
     <sheet name="2025-01-08 - 25-24735" sheetId="2" r:id="rId2"/>
+    <sheet name="2025-02-01 - 25-24740" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
     <definedName name="Liste_Activités">[1]Admin!$Z$11:$Z$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2025-01-08 - 25-24735'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2025-02-01 - 25-24740'!$A$1:$F$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>Sébastien Beaudoin</t>
   </si>
@@ -120,6 +122,15 @@
   </si>
   <si>
     <t>Autres frais</t>
+  </si>
+  <si>
+    <t>Le 1 FÉVRIER 2025</t>
+  </si>
+  <si>
+    <t>25-24740</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Honoraires pour travaux spéciaux concernant la taxe de vente</t>
   </si>
 </sst>
 </file>
@@ -375,7 +386,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -538,6 +549,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,53 +612,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="21" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1306,6 +1323,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6BD9E0D-519F-A0EE-9399-6AA9931C230F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2276,13 +2359,13 @@
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2749,10 +2832,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="65" t="s">
+      <c r="B81" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="66"/>
+      <c r="C81" s="80"/>
       <c r="D81" s="58"/>
       <c r="E81" s="59">
         <f>E77-E79</f>
@@ -2770,30 +2853,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="60"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
+      <c r="B83" s="81"/>
+      <c r="C83" s="82"/>
+      <c r="D83" s="82"/>
+      <c r="E83" s="82"/>
       <c r="F83" s="61"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="69" t="s">
+      <c r="A84" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
       <c r="F84" s="19"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
       <c r="F85" s="63"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2813,14 +2896,14 @@
       <c r="F87" s="63"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="71" t="s">
+      <c r="A88" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2851,7 +2934,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
   </sheetViews>
@@ -3112,13 +3195,13 @@
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3152,7 +3235,7 @@
       <c r="B34" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="72"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
@@ -3160,7 +3243,7 @@
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="73"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
@@ -3168,7 +3251,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="23"/>
-      <c r="C36" s="72"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
@@ -3176,7 +3259,7 @@
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="72"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
@@ -3184,7 +3267,7 @@
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="72"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
@@ -3192,7 +3275,7 @@
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="23"/>
-      <c r="C39" s="72"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
@@ -3200,7 +3283,7 @@
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="23"/>
-      <c r="C40" s="73"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
@@ -3208,7 +3291,7 @@
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="23"/>
-      <c r="C41" s="72"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
@@ -3216,7 +3299,7 @@
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="23"/>
-      <c r="C42" s="72"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
@@ -3224,7 +3307,7 @@
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="23"/>
-      <c r="C43" s="72"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
@@ -3232,7 +3315,7 @@
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="23"/>
-      <c r="C44" s="72"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
@@ -3240,7 +3323,7 @@
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="23"/>
-      <c r="C45" s="72"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
@@ -3248,7 +3331,7 @@
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="23"/>
-      <c r="C46" s="72"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
@@ -3256,7 +3339,7 @@
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="23"/>
-      <c r="C47" s="72"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -3264,7 +3347,7 @@
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="23"/>
-      <c r="C48" s="72"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
@@ -3272,7 +3355,7 @@
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="23"/>
-      <c r="C49" s="72"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -3280,15 +3363,15 @@
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="23"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="23"/>
-      <c r="C51" s="72"/>
+      <c r="C51" s="64"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
@@ -3296,7 +3379,7 @@
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="23"/>
-      <c r="C52" s="72"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
@@ -3304,7 +3387,7 @@
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="23"/>
-      <c r="C53" s="72"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
@@ -3312,7 +3395,7 @@
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="23"/>
-      <c r="C54" s="72"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
@@ -3320,7 +3403,7 @@
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="23"/>
-      <c r="C55" s="72"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
@@ -3328,7 +3411,7 @@
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="23"/>
-      <c r="C56" s="72"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
       <c r="F56" s="26"/>
@@ -3336,7 +3419,7 @@
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="23"/>
-      <c r="C57" s="72"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
       <c r="F57" s="26"/>
@@ -3344,7 +3427,7 @@
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
       <c r="B58" s="23"/>
-      <c r="C58" s="72"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
@@ -3352,7 +3435,7 @@
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="23"/>
-      <c r="C59" s="72"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
       <c r="F59" s="26"/>
@@ -3360,7 +3443,7 @@
     <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="23"/>
-      <c r="C60" s="72"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
       <c r="F60" s="26"/>
@@ -3368,7 +3451,7 @@
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="23"/>
-      <c r="C61" s="72"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
       <c r="F61" s="26"/>
@@ -3376,23 +3459,23 @@
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="23"/>
-      <c r="C62" s="72"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
       <c r="F62" s="26"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
-      <c r="B63" s="75"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="77"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="69"/>
       <c r="E63" s="26"/>
       <c r="F63" s="26"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="78"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="70"/>
       <c r="D64" s="22"/>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
@@ -3400,30 +3483,30 @@
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="23"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="80"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="72"/>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="23"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="82"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="74"/>
       <c r="E66" s="38"/>
       <c r="F66" s="38"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="82"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="74"/>
       <c r="E67" s="26"/>
       <c r="F67" s="26"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
-      <c r="B68" s="75"/>
+      <c r="B68" s="67"/>
       <c r="C68" s="40"/>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
@@ -3567,12 +3650,12 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="83" t="s">
+      <c r="B81" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="84"/>
-      <c r="D81" s="85"/>
-      <c r="E81" s="86">
+      <c r="C81" s="86"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="76">
         <v>1480.3100000000002</v>
       </c>
       <c r="F81" s="8"/>
@@ -3587,30 +3670,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="60"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
+      <c r="B83" s="81"/>
+      <c r="C83" s="82"/>
+      <c r="D83" s="82"/>
+      <c r="E83" s="82"/>
       <c r="F83" s="61"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="69" t="s">
+      <c r="A84" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
       <c r="F84" s="19"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
       <c r="F85" s="63"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3630,14 +3713,825 @@
       <c r="F87" s="63"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="71" t="s">
+      <c r="A88" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="61" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB294F1B-8486-411D-86AE-324AB90487C7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="41"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="42">
+        <v>775</v>
+      </c>
+      <c r="F69" s="42"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="44"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="45">
+        <v>0</v>
+      </c>
+      <c r="F70" s="45"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="44"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="45">
+        <v>0</v>
+      </c>
+      <c r="F71" s="45"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="44"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="45">
+        <v>0</v>
+      </c>
+      <c r="F72" s="45"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="41"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="47">
+        <v>775</v>
+      </c>
+      <c r="F73" s="47"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="44"/>
+      <c r="E74" s="49">
+        <v>38.75</v>
+      </c>
+      <c r="F74" s="49"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="51">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="44"/>
+      <c r="E75" s="52">
+        <v>77.31</v>
+      </c>
+      <c r="F75" s="49"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="41"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="55">
+        <v>891.06</v>
+      </c>
+      <c r="F77" s="56"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="50"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="50"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="8">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="50"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="86"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="76">
+        <v>891.06</v>
+      </c>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="60"/>
+      <c r="B83" s="81"/>
+      <c r="C83" s="82"/>
+      <c r="D83" s="82"/>
+      <c r="E83" s="82"/>
+      <c r="F83" s="61"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="83"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="19"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="84"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="63"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="62"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="63"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="62"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="63"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3650,7 +4544,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="119" scale="61" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="61" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>